--- a/March Madness 2020 C/AG1020stacked.xlsx
+++ b/March Madness 2020 C/AG1020stacked.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. OPERATIONS\Personal Folders\CW3 Harmon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RStudio\MyProjects\March Madness 2020 C\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D9C2CE-C236-4BD7-A472-B7274C0CEBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AG0320stacked" sheetId="4" r:id="rId1"/>
+    <sheet name="AG1020stacked" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8314" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8310" uniqueCount="307">
   <si>
     <t>GameN</t>
   </si>
@@ -945,19 +946,19 @@
     <t>Virginia Commonwealth</t>
   </si>
   <si>
-    <t>William &amp; Mary</t>
-  </si>
-  <si>
     <t>Rutgers</t>
   </si>
   <si>
-    <t>Monmouth</t>
+    <t>Saint Francis (PA)</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
@@ -1802,2860 +1803,2858 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5766">
-          <cell r="B5766" t="str">
+        <row r="3480">
+          <cell r="B3480" t="str">
             <v>Abilene Christian</v>
           </cell>
-          <cell r="C5766" t="str">
+          <cell r="C3480" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5767">
-          <cell r="B5767" t="str">
+        <row r="3481">
+          <cell r="B3481" t="str">
             <v>Air Force</v>
           </cell>
-          <cell r="C5767" t="str">
+          <cell r="C3481" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5768">
-          <cell r="B5768" t="str">
+        <row r="3482">
+          <cell r="B3482" t="str">
             <v>Akron</v>
           </cell>
-          <cell r="C5768" t="str">
+          <cell r="C3482" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5769">
-          <cell r="B5769" t="str">
+        <row r="3483">
+          <cell r="B3483" t="str">
             <v>Alabama</v>
           </cell>
-          <cell r="C5769" t="str">
+          <cell r="C3483" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5770">
-          <cell r="B5770" t="str">
+        <row r="3484">
+          <cell r="B3484" t="str">
             <v>Alabama A&amp;M</v>
           </cell>
-          <cell r="C5770" t="str">
+          <cell r="C3484" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5771">
-          <cell r="B5771" t="str">
+        <row r="3485">
+          <cell r="B3485" t="str">
             <v>Alabama State</v>
           </cell>
-          <cell r="C5771" t="str">
+          <cell r="C3485" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5772">
-          <cell r="B5772" t="str">
+        <row r="3486">
+          <cell r="B3486" t="str">
             <v>Alabama-Birmingham</v>
           </cell>
-          <cell r="C5772" t="str">
+          <cell r="C3486" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5773">
-          <cell r="B5773" t="str">
+        <row r="3487">
+          <cell r="B3487" t="str">
             <v>Albany (NY)</v>
           </cell>
-          <cell r="C5773" t="str">
+          <cell r="C3487" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5774">
-          <cell r="B5774" t="str">
+        <row r="3488">
+          <cell r="B3488" t="str">
             <v>Alcorn State</v>
           </cell>
-          <cell r="C5774" t="str">
+          <cell r="C3488" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5775">
-          <cell r="B5775" t="str">
+        <row r="3489">
+          <cell r="B3489" t="str">
             <v>American</v>
           </cell>
-          <cell r="C5775" t="str">
+          <cell r="C3489" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5776">
-          <cell r="B5776" t="str">
+        <row r="3490">
+          <cell r="B3490" t="str">
             <v>Appalachian State</v>
           </cell>
-          <cell r="C5776" t="str">
+          <cell r="C3490" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5777">
-          <cell r="B5777" t="str">
+        <row r="3491">
+          <cell r="B3491" t="str">
             <v>Arizona</v>
           </cell>
-          <cell r="C5777" t="str">
+          <cell r="C3491" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="5778">
-          <cell r="B5778" t="str">
+        <row r="3492">
+          <cell r="B3492" t="str">
             <v>Arizona State</v>
           </cell>
-          <cell r="C5778" t="str">
+          <cell r="C3492" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="5779">
-          <cell r="B5779" t="str">
+        <row r="3493">
+          <cell r="B3493" t="str">
             <v>Arkansas</v>
           </cell>
-          <cell r="C5779" t="str">
+          <cell r="C3493" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5780">
-          <cell r="B5780" t="str">
+        <row r="3494">
+          <cell r="B3494" t="str">
             <v>Arkansas State</v>
           </cell>
-          <cell r="C5780" t="str">
+          <cell r="C3494" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5781">
-          <cell r="B5781" t="str">
+        <row r="3495">
+          <cell r="B3495" t="str">
             <v>Arkansas-Pine Bluff</v>
           </cell>
-          <cell r="C5781" t="str">
+          <cell r="C3495" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5782">
-          <cell r="B5782" t="str">
+        <row r="3496">
+          <cell r="B3496" t="str">
             <v>Army</v>
           </cell>
-          <cell r="C5782" t="str">
+          <cell r="C3496" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5783">
-          <cell r="B5783" t="str">
+        <row r="3497">
+          <cell r="B3497" t="str">
             <v>Auburn</v>
           </cell>
-          <cell r="C5783" t="str">
+          <cell r="C3497" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5784">
-          <cell r="B5784" t="str">
+        <row r="3498">
+          <cell r="B3498" t="str">
             <v>Austin Peay</v>
           </cell>
-          <cell r="C5784" t="str">
+          <cell r="C3498" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5785">
-          <cell r="B5785" t="str">
+        <row r="3499">
+          <cell r="B3499" t="str">
             <v>Ball State</v>
           </cell>
-          <cell r="C5785" t="str">
+          <cell r="C3499" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="5786">
-          <cell r="B5786" t="str">
+        <row r="3500">
+          <cell r="B3500" t="str">
             <v>Baylor</v>
           </cell>
-          <cell r="C5786" t="str">
+          <cell r="C3500" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5787">
-          <cell r="B5787" t="str">
+        <row r="3501">
+          <cell r="B3501" t="str">
             <v>Belmont</v>
           </cell>
-          <cell r="C5787" t="str">
+          <cell r="C3501" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5788">
-          <cell r="B5788" t="str">
+        <row r="3502">
+          <cell r="B3502" t="str">
             <v>Bethune-Cookman</v>
           </cell>
-          <cell r="C5788" t="str">
+          <cell r="C3502" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5789">
-          <cell r="B5789" t="str">
+        <row r="3503">
+          <cell r="B3503" t="str">
             <v>Binghamton</v>
           </cell>
-          <cell r="C5789" t="str">
+          <cell r="C3503" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5790">
-          <cell r="B5790" t="str">
+        <row r="3504">
+          <cell r="B3504" t="str">
             <v>Boise State</v>
           </cell>
-          <cell r="C5790" t="str">
+          <cell r="C3504" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5791">
-          <cell r="B5791" t="str">
+        <row r="3505">
+          <cell r="B3505" t="str">
             <v>Boston College</v>
           </cell>
-          <cell r="C5791" t="str">
+          <cell r="C3505" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5792">
-          <cell r="B5792" t="str">
+        <row r="3506">
+          <cell r="B3506" t="str">
             <v>Boston University</v>
           </cell>
-          <cell r="C5792" t="str">
+          <cell r="C3506" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5793">
-          <cell r="B5793" t="str">
+        <row r="3507">
+          <cell r="B3507" t="str">
             <v>Bowling Green State</v>
           </cell>
-          <cell r="C5793" t="str">
+          <cell r="C3507" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5794">
-          <cell r="B5794" t="str">
+        <row r="3508">
+          <cell r="B3508" t="str">
             <v>Bradley</v>
           </cell>
-          <cell r="C5794" t="str">
+          <cell r="C3508" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5795">
-          <cell r="B5795" t="str">
+        <row r="3509">
+          <cell r="B3509" t="str">
             <v>Brigham Young</v>
           </cell>
-          <cell r="C5795" t="str">
+          <cell r="C3509" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="5796">
-          <cell r="B5796" t="str">
+        <row r="3510">
+          <cell r="B3510" t="str">
             <v>Brown</v>
           </cell>
-          <cell r="C5796" t="str">
+          <cell r="C3510" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="5797">
-          <cell r="B5797" t="str">
+        <row r="3511">
+          <cell r="B3511" t="str">
             <v>Bryant</v>
           </cell>
-          <cell r="C5797" t="str">
+          <cell r="C3511" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5798">
-          <cell r="B5798" t="str">
+        <row r="3512">
+          <cell r="B3512" t="str">
             <v>Bucknell</v>
           </cell>
-          <cell r="C5798" t="str">
+          <cell r="C3512" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5799">
-          <cell r="B5799" t="str">
+        <row r="3513">
+          <cell r="B3513" t="str">
             <v>Buffalo</v>
           </cell>
-          <cell r="C5799" t="str">
+          <cell r="C3513" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5800">
-          <cell r="B5800" t="str">
+        <row r="3514">
+          <cell r="B3514" t="str">
             <v>Butler</v>
           </cell>
-          <cell r="C5800" t="str">
+          <cell r="C3514" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="5801">
-          <cell r="B5801" t="str">
+        <row r="3515">
+          <cell r="B3515" t="str">
             <v>Cal Poly</v>
           </cell>
-          <cell r="C5801" t="str">
+          <cell r="C3515" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="5802">
-          <cell r="B5802" t="str">
+        <row r="3516">
+          <cell r="B3516" t="str">
             <v>Cal State Bakersfield</v>
           </cell>
-          <cell r="C5802" t="str">
+          <cell r="C3516" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5803">
-          <cell r="B5803" t="str">
+        <row r="3517">
+          <cell r="B3517" t="str">
             <v>Cal State Fullerton</v>
           </cell>
-          <cell r="C5803" t="str">
+          <cell r="C3517" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="5804">
-          <cell r="B5804" t="str">
+        <row r="3518">
+          <cell r="B3518" t="str">
             <v>Cal State Long Beach</v>
           </cell>
-          <cell r="C5804" t="str">
+          <cell r="C3518" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="5805">
-          <cell r="B5805" t="str">
+        <row r="3519">
+          <cell r="B3519" t="str">
             <v>Cal State Northridge</v>
           </cell>
-          <cell r="C5805" t="str">
+          <cell r="C3519" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="5806">
-          <cell r="B5806" t="str">
+        <row r="3520">
+          <cell r="B3520" t="str">
             <v>California Baptist</v>
           </cell>
-          <cell r="C5806" t="str">
+          <cell r="C3520" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5807">
-          <cell r="B5807" t="str">
+        <row r="3521">
+          <cell r="B3521" t="str">
             <v>Campbell</v>
           </cell>
-          <cell r="C5807" t="str">
+          <cell r="C3521" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5808">
-          <cell r="B5808" t="str">
+        <row r="3522">
+          <cell r="B3522" t="str">
             <v>Canisius</v>
           </cell>
-          <cell r="C5808" t="str">
+          <cell r="C3522" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5809">
-          <cell r="B5809" t="str">
+        <row r="3523">
+          <cell r="B3523" t="str">
             <v>Central Arkansas</v>
           </cell>
-          <cell r="C5809" t="str">
+          <cell r="C3523" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5810">
-          <cell r="B5810" t="str">
+        <row r="3524">
+          <cell r="B3524" t="str">
             <v>Central Connecticut State</v>
           </cell>
-          <cell r="C5810" t="str">
+          <cell r="C3524" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5811">
-          <cell r="B5811" t="str">
+        <row r="3525">
+          <cell r="B3525" t="str">
             <v>Central Florida</v>
           </cell>
-          <cell r="C5811" t="str">
+          <cell r="C3525" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5812">
-          <cell r="B5812" t="str">
+        <row r="3526">
+          <cell r="B3526" t="str">
             <v>Central Michigan</v>
           </cell>
-          <cell r="C5812" t="str">
+          <cell r="C3526" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="5813">
-          <cell r="B5813" t="str">
+        <row r="3527">
+          <cell r="B3527" t="str">
             <v>Charleston Southern</v>
           </cell>
-          <cell r="C5813" t="str">
+          <cell r="C3527" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5814">
-          <cell r="B5814" t="str">
+        <row r="3528">
+          <cell r="B3528" t="str">
             <v>Charlotte</v>
           </cell>
-          <cell r="C5814" t="str">
+          <cell r="C3528" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5815">
-          <cell r="B5815" t="str">
+        <row r="3529">
+          <cell r="B3529" t="str">
             <v>Chattanooga</v>
           </cell>
-          <cell r="C5815" t="str">
+          <cell r="C3529" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5816">
-          <cell r="B5816" t="str">
+        <row r="3530">
+          <cell r="B3530" t="str">
             <v>Chicago State</v>
           </cell>
-          <cell r="C5816" t="str">
+          <cell r="C3530" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5817">
-          <cell r="B5817" t="str">
+        <row r="3531">
+          <cell r="B3531" t="str">
             <v>Cincinnati</v>
           </cell>
-          <cell r="C5817" t="str">
+          <cell r="C3531" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5818">
-          <cell r="B5818" t="str">
+        <row r="3532">
+          <cell r="B3532" t="str">
             <v>Citadel</v>
           </cell>
-          <cell r="C5818" t="str">
+          <cell r="C3532" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5819">
-          <cell r="B5819" t="str">
+        <row r="3533">
+          <cell r="B3533" t="str">
             <v>Clemson</v>
           </cell>
-          <cell r="C5819" t="str">
+          <cell r="C3533" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5820">
-          <cell r="B5820" t="str">
+        <row r="3534">
+          <cell r="B3534" t="str">
             <v>Cleveland State</v>
           </cell>
-          <cell r="C5820" t="str">
+          <cell r="C3534" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5821">
-          <cell r="B5821" t="str">
+        <row r="3535">
+          <cell r="B3535" t="str">
             <v>Coastal Carolina</v>
           </cell>
-          <cell r="C5821" t="str">
+          <cell r="C3535" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5822">
-          <cell r="B5822" t="str">
+        <row r="3536">
+          <cell r="B3536" t="str">
             <v>Colgate</v>
           </cell>
-          <cell r="C5822" t="str">
+          <cell r="C3536" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5823">
-          <cell r="B5823" t="str">
+        <row r="3537">
+          <cell r="B3537" t="str">
             <v>College of Charleston</v>
           </cell>
-          <cell r="C5823" t="str">
+          <cell r="C3537" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5824">
-          <cell r="B5824" t="str">
+        <row r="3538">
+          <cell r="B3538" t="str">
             <v>Colorado</v>
           </cell>
-          <cell r="C5824" t="str">
+          <cell r="C3538" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="5825">
-          <cell r="B5825" t="str">
+        <row r="3539">
+          <cell r="B3539" t="str">
             <v>Colorado State</v>
           </cell>
-          <cell r="C5825" t="str">
+          <cell r="C3539" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5826">
-          <cell r="B5826" t="str">
+        <row r="3540">
+          <cell r="B3540" t="str">
             <v>Columbia</v>
           </cell>
-          <cell r="C5826" t="str">
+          <cell r="C3540" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="5827">
-          <cell r="B5827" t="str">
+        <row r="3541">
+          <cell r="B3541" t="str">
             <v>Connecticut</v>
           </cell>
-          <cell r="C5827" t="str">
+          <cell r="C3541" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5828">
-          <cell r="B5828" t="str">
+        <row r="3542">
+          <cell r="B3542" t="str">
             <v>Coppin State</v>
           </cell>
-          <cell r="C5828" t="str">
+          <cell r="C3542" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5829">
-          <cell r="B5829" t="str">
+        <row r="3543">
+          <cell r="B3543" t="str">
             <v>Cornell</v>
           </cell>
-          <cell r="C5829" t="str">
+          <cell r="C3543" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="5830">
-          <cell r="B5830" t="str">
+        <row r="3544">
+          <cell r="B3544" t="str">
             <v>Creighton</v>
           </cell>
-          <cell r="C5830" t="str">
+          <cell r="C3544" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="5831">
-          <cell r="B5831" t="str">
+        <row r="3545">
+          <cell r="B3545" t="str">
             <v>Dartmouth</v>
           </cell>
-          <cell r="C5831" t="str">
+          <cell r="C3545" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="5832">
-          <cell r="B5832" t="str">
+        <row r="3546">
+          <cell r="B3546" t="str">
             <v>Davidson</v>
           </cell>
-          <cell r="C5832" t="str">
+          <cell r="C3546" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5833">
-          <cell r="B5833" t="str">
+        <row r="3547">
+          <cell r="B3547" t="str">
             <v>Dayton</v>
           </cell>
-          <cell r="C5833" t="str">
+          <cell r="C3547" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5834">
-          <cell r="B5834" t="str">
+        <row r="3548">
+          <cell r="B3548" t="str">
             <v>Delaware</v>
           </cell>
-          <cell r="C5834" t="str">
+          <cell r="C3548" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5835">
-          <cell r="B5835" t="str">
+        <row r="3549">
+          <cell r="B3549" t="str">
             <v>Delaware State</v>
           </cell>
-          <cell r="C5835" t="str">
+          <cell r="C3549" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5836">
-          <cell r="B5836" t="str">
+        <row r="3550">
+          <cell r="B3550" t="str">
             <v>Denver</v>
           </cell>
-          <cell r="C5836" t="str">
+          <cell r="C3550" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="5837">
-          <cell r="B5837" t="str">
+        <row r="3551">
+          <cell r="B3551" t="str">
             <v>DePaul</v>
           </cell>
-          <cell r="C5837" t="str">
+          <cell r="C3551" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="5838">
-          <cell r="B5838" t="str">
+        <row r="3552">
+          <cell r="B3552" t="str">
             <v>Detroit Mercy</v>
           </cell>
-          <cell r="C5838" t="str">
+          <cell r="C3552" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5839">
-          <cell r="B5839" t="str">
+        <row r="3553">
+          <cell r="B3553" t="str">
             <v>Drake</v>
           </cell>
-          <cell r="C5839" t="str">
+          <cell r="C3553" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5840">
-          <cell r="B5840" t="str">
+        <row r="3554">
+          <cell r="B3554" t="str">
             <v>Drexel</v>
           </cell>
-          <cell r="C5840" t="str">
+          <cell r="C3554" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5841">
-          <cell r="B5841" t="str">
+        <row r="3555">
+          <cell r="B3555" t="str">
             <v>Duke</v>
           </cell>
-          <cell r="C5841" t="str">
+          <cell r="C3555" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5842">
-          <cell r="B5842" t="str">
+        <row r="3556">
+          <cell r="B3556" t="str">
             <v>Duquesne</v>
           </cell>
-          <cell r="C5842" t="str">
+          <cell r="C3556" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5843">
-          <cell r="B5843" t="str">
+        <row r="3557">
+          <cell r="B3557" t="str">
             <v>East Carolina</v>
           </cell>
-          <cell r="C5843" t="str">
+          <cell r="C3557" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5844">
-          <cell r="B5844" t="str">
+        <row r="3558">
+          <cell r="B3558" t="str">
             <v>East Tennessee State</v>
           </cell>
-          <cell r="C5844" t="str">
+          <cell r="C3558" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5845">
-          <cell r="B5845" t="str">
+        <row r="3559">
+          <cell r="B3559" t="str">
             <v>Eastern Illinois</v>
           </cell>
-          <cell r="C5845" t="str">
+          <cell r="C3559" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5846">
-          <cell r="B5846" t="str">
+        <row r="3560">
+          <cell r="B3560" t="str">
             <v>Eastern Kentucky</v>
           </cell>
-          <cell r="C5846" t="str">
+          <cell r="C3560" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5847">
-          <cell r="B5847" t="str">
+        <row r="3561">
+          <cell r="B3561" t="str">
             <v>Eastern Michigan</v>
           </cell>
-          <cell r="C5847" t="str">
+          <cell r="C3561" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="5848">
-          <cell r="B5848" t="str">
+        <row r="3562">
+          <cell r="B3562" t="str">
             <v>Eastern Washington</v>
           </cell>
-          <cell r="C5848" t="str">
+          <cell r="C3562" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5849">
-          <cell r="B5849" t="str">
+        <row r="3563">
+          <cell r="B3563" t="str">
             <v>Elon</v>
           </cell>
-          <cell r="C5849" t="str">
+          <cell r="C3563" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5850">
-          <cell r="B5850" t="str">
+        <row r="3564">
+          <cell r="B3564" t="str">
             <v>Evansville</v>
           </cell>
-          <cell r="C5850" t="str">
+          <cell r="C3564" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5851">
-          <cell r="B5851" t="str">
+        <row r="3565">
+          <cell r="B3565" t="str">
             <v>Fairfield</v>
           </cell>
-          <cell r="C5851" t="str">
+          <cell r="C3565" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5852">
-          <cell r="B5852" t="str">
+        <row r="3566">
+          <cell r="B3566" t="str">
             <v>Fairleigh Dickinson</v>
           </cell>
-          <cell r="C5852" t="str">
+          <cell r="C3566" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5853">
-          <cell r="B5853" t="str">
+        <row r="3567">
+          <cell r="B3567" t="str">
             <v>Florida</v>
           </cell>
-          <cell r="C5853" t="str">
+          <cell r="C3567" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5854">
-          <cell r="B5854" t="str">
+        <row r="3568">
+          <cell r="B3568" t="str">
             <v>Florida A&amp;M</v>
           </cell>
-          <cell r="C5854" t="str">
+          <cell r="C3568" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5855">
-          <cell r="B5855" t="str">
+        <row r="3569">
+          <cell r="B3569" t="str">
             <v>Florida Atlantic</v>
           </cell>
-          <cell r="C5855" t="str">
+          <cell r="C3569" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5856">
-          <cell r="B5856" t="str">
+        <row r="3570">
+          <cell r="B3570" t="str">
             <v>Florida Gulf Coast</v>
           </cell>
-          <cell r="C5856" t="str">
+          <cell r="C3570" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5857">
-          <cell r="B5857" t="str">
+        <row r="3571">
+          <cell r="B3571" t="str">
             <v>Florida International</v>
           </cell>
-          <cell r="C5857" t="str">
+          <cell r="C3571" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5858">
-          <cell r="B5858" t="str">
+        <row r="3572">
+          <cell r="B3572" t="str">
             <v>Florida State</v>
           </cell>
-          <cell r="C5858" t="str">
+          <cell r="C3572" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5859">
-          <cell r="B5859" t="str">
+        <row r="3573">
+          <cell r="B3573" t="str">
             <v>Fordham</v>
           </cell>
-          <cell r="C5859" t="str">
+          <cell r="C3573" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5860">
-          <cell r="B5860" t="str">
+        <row r="3574">
+          <cell r="B3574" t="str">
             <v>Fresno State</v>
           </cell>
-          <cell r="C5860" t="str">
+          <cell r="C3574" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5861">
-          <cell r="B5861" t="str">
+        <row r="3575">
+          <cell r="B3575" t="str">
             <v>Furman</v>
           </cell>
-          <cell r="C5861" t="str">
+          <cell r="C3575" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5862">
-          <cell r="B5862" t="str">
+        <row r="3576">
+          <cell r="B3576" t="str">
             <v>Gardner-Webb</v>
           </cell>
-          <cell r="C5862" t="str">
+          <cell r="C3576" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5863">
-          <cell r="B5863" t="str">
+        <row r="3577">
+          <cell r="B3577" t="str">
             <v>George Mason</v>
           </cell>
-          <cell r="C5863" t="str">
+          <cell r="C3577" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5864">
-          <cell r="B5864" t="str">
+        <row r="3578">
+          <cell r="B3578" t="str">
             <v>George Washington</v>
           </cell>
-          <cell r="C5864" t="str">
+          <cell r="C3578" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5865">
-          <cell r="B5865" t="str">
+        <row r="3579">
+          <cell r="B3579" t="str">
             <v>Georgetown</v>
           </cell>
-          <cell r="C5865" t="str">
+          <cell r="C3579" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="5866">
-          <cell r="B5866" t="str">
+        <row r="3580">
+          <cell r="B3580" t="str">
             <v>Georgia</v>
           </cell>
-          <cell r="C5866" t="str">
+          <cell r="C3580" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5867">
-          <cell r="B5867" t="str">
+        <row r="3581">
+          <cell r="B3581" t="str">
             <v>Georgia Southern</v>
           </cell>
-          <cell r="C5867" t="str">
+          <cell r="C3581" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5868">
-          <cell r="B5868" t="str">
+        <row r="3582">
+          <cell r="B3582" t="str">
             <v>Georgia State</v>
           </cell>
-          <cell r="C5868" t="str">
+          <cell r="C3582" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5869">
-          <cell r="B5869" t="str">
+        <row r="3583">
+          <cell r="B3583" t="str">
             <v>Georgia Tech</v>
           </cell>
-          <cell r="C5869" t="str">
+          <cell r="C3583" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5870">
-          <cell r="B5870" t="str">
+        <row r="3584">
+          <cell r="B3584" t="str">
             <v>Gonzaga</v>
           </cell>
-          <cell r="C5870" t="str">
+          <cell r="C3584" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="5871">
-          <cell r="B5871" t="str">
+        <row r="3585">
+          <cell r="B3585" t="str">
             <v>Grambling</v>
           </cell>
-          <cell r="C5871" t="str">
+          <cell r="C3585" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5872">
-          <cell r="B5872" t="str">
+        <row r="3586">
+          <cell r="B3586" t="str">
             <v>Grand Canyon</v>
           </cell>
-          <cell r="C5872" t="str">
+          <cell r="C3586" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5873">
-          <cell r="B5873" t="str">
+        <row r="3587">
+          <cell r="B3587" t="str">
             <v>Green Bay</v>
           </cell>
-          <cell r="C5873" t="str">
+          <cell r="C3587" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5874">
-          <cell r="B5874" t="str">
+        <row r="3588">
+          <cell r="B3588" t="str">
             <v>Hampton</v>
           </cell>
-          <cell r="C5874" t="str">
+          <cell r="C3588" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5875">
-          <cell r="B5875" t="str">
+        <row r="3589">
+          <cell r="B3589" t="str">
             <v>Hartford</v>
           </cell>
-          <cell r="C5875" t="str">
+          <cell r="C3589" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5876">
-          <cell r="B5876" t="str">
+        <row r="3590">
+          <cell r="B3590" t="str">
             <v>Harvard</v>
           </cell>
-          <cell r="C5876" t="str">
+          <cell r="C3590" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="5877">
-          <cell r="B5877" t="str">
+        <row r="3591">
+          <cell r="B3591" t="str">
             <v>Hawaii</v>
           </cell>
-          <cell r="C5877" t="str">
+          <cell r="C3591" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="5878">
-          <cell r="B5878" t="str">
+        <row r="3592">
+          <cell r="B3592" t="str">
             <v>High Point</v>
           </cell>
-          <cell r="C5878" t="str">
+          <cell r="C3592" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5879">
-          <cell r="B5879" t="str">
+        <row r="3593">
+          <cell r="B3593" t="str">
             <v>Hofstra</v>
           </cell>
-          <cell r="C5879" t="str">
+          <cell r="C3593" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5880">
-          <cell r="B5880" t="str">
+        <row r="3594">
+          <cell r="B3594" t="str">
             <v>Holy Cross</v>
           </cell>
-          <cell r="C5880" t="str">
+          <cell r="C3594" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5881">
-          <cell r="B5881" t="str">
+        <row r="3595">
+          <cell r="B3595" t="str">
             <v>Houston</v>
           </cell>
-          <cell r="C5881" t="str">
+          <cell r="C3595" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5882">
-          <cell r="B5882" t="str">
+        <row r="3596">
+          <cell r="B3596" t="str">
             <v>Houston Baptist</v>
           </cell>
-          <cell r="C5882" t="str">
+          <cell r="C3596" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5883">
-          <cell r="B5883" t="str">
+        <row r="3597">
+          <cell r="B3597" t="str">
             <v>Howard</v>
           </cell>
-          <cell r="C5883" t="str">
+          <cell r="C3597" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5884">
-          <cell r="B5884" t="str">
+        <row r="3598">
+          <cell r="B3598" t="str">
             <v>Idaho</v>
           </cell>
-          <cell r="C5884" t="str">
+          <cell r="C3598" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5885">
-          <cell r="B5885" t="str">
+        <row r="3599">
+          <cell r="B3599" t="str">
             <v>Idaho State</v>
           </cell>
-          <cell r="C5885" t="str">
+          <cell r="C3599" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5886">
-          <cell r="B5886" t="str">
+        <row r="3600">
+          <cell r="B3600" t="str">
             <v>Illinois</v>
           </cell>
-          <cell r="C5886" t="str">
+          <cell r="C3600" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5887">
-          <cell r="B5887" t="str">
+        <row r="3601">
+          <cell r="B3601" t="str">
             <v>Illinois State</v>
           </cell>
-          <cell r="C5887" t="str">
+          <cell r="C3601" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5888">
-          <cell r="B5888" t="str">
+        <row r="3602">
+          <cell r="B3602" t="str">
             <v>Illinois-Chicago</v>
           </cell>
-          <cell r="C5888" t="str">
+          <cell r="C3602" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5889">
-          <cell r="B5889" t="str">
+        <row r="3603">
+          <cell r="B3603" t="str">
             <v>Incarnate Word</v>
           </cell>
-          <cell r="C5889" t="str">
+          <cell r="C3603" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5890">
-          <cell r="B5890" t="str">
+        <row r="3604">
+          <cell r="B3604" t="str">
             <v>Indiana</v>
           </cell>
-          <cell r="C5890" t="str">
+          <cell r="C3604" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5891">
-          <cell r="B5891" t="str">
+        <row r="3605">
+          <cell r="B3605" t="str">
             <v>Indiana State</v>
           </cell>
-          <cell r="C5891" t="str">
+          <cell r="C3605" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5892">
-          <cell r="B5892" t="str">
+        <row r="3606">
+          <cell r="B3606" t="str">
             <v>Iona</v>
           </cell>
-          <cell r="C5892" t="str">
+          <cell r="C3606" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5893">
-          <cell r="B5893" t="str">
+        <row r="3607">
+          <cell r="B3607" t="str">
             <v>Iowa</v>
           </cell>
-          <cell r="C5893" t="str">
+          <cell r="C3607" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5894">
-          <cell r="B5894" t="str">
+        <row r="3608">
+          <cell r="B3608" t="str">
             <v>Iowa State</v>
           </cell>
-          <cell r="C5894" t="str">
+          <cell r="C3608" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5895">
-          <cell r="B5895" t="str">
+        <row r="3609">
+          <cell r="B3609" t="str">
             <v>IUPUI</v>
           </cell>
-          <cell r="C5895" t="str">
+          <cell r="C3609" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5896">
-          <cell r="B5896" t="str">
+        <row r="3610">
+          <cell r="B3610" t="str">
             <v>Jackson State</v>
           </cell>
-          <cell r="C5896" t="str">
+          <cell r="C3610" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5897">
-          <cell r="B5897" t="str">
+        <row r="3611">
+          <cell r="B3611" t="str">
             <v>Jacksonville</v>
           </cell>
-          <cell r="C5897" t="str">
+          <cell r="C3611" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5898">
-          <cell r="B5898" t="str">
+        <row r="3612">
+          <cell r="B3612" t="str">
             <v>Jacksonville State</v>
           </cell>
-          <cell r="C5898" t="str">
+          <cell r="C3612" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5899">
-          <cell r="B5899" t="str">
+        <row r="3613">
+          <cell r="B3613" t="str">
             <v>James Madison</v>
           </cell>
-          <cell r="C5899" t="str">
+          <cell r="C3613" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5900">
-          <cell r="B5900" t="str">
+        <row r="3614">
+          <cell r="B3614" t="str">
             <v>Kansas</v>
           </cell>
-          <cell r="C5900" t="str">
+          <cell r="C3614" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5901">
-          <cell r="B5901" t="str">
+        <row r="3615">
+          <cell r="B3615" t="str">
             <v>Kansas State</v>
           </cell>
-          <cell r="C5901" t="str">
+          <cell r="C3615" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5902">
-          <cell r="B5902" t="str">
+        <row r="3616">
+          <cell r="B3616" t="str">
             <v>Kennesaw State</v>
           </cell>
-          <cell r="C5902" t="str">
+          <cell r="C3616" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5903">
-          <cell r="B5903" t="str">
+        <row r="3617">
+          <cell r="B3617" t="str">
             <v>Kent State</v>
           </cell>
-          <cell r="C5903" t="str">
+          <cell r="C3617" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5904">
-          <cell r="B5904" t="str">
+        <row r="3618">
+          <cell r="B3618" t="str">
             <v>Kentucky</v>
           </cell>
-          <cell r="C5904" t="str">
+          <cell r="C3618" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5905">
-          <cell r="B5905" t="str">
+        <row r="3619">
+          <cell r="B3619" t="str">
             <v>La Salle</v>
           </cell>
-          <cell r="C5905" t="str">
+          <cell r="C3619" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5906">
-          <cell r="B5906" t="str">
+        <row r="3620">
+          <cell r="B3620" t="str">
             <v>Lafayette</v>
           </cell>
-          <cell r="C5906" t="str">
+          <cell r="C3620" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5907">
-          <cell r="B5907" t="str">
+        <row r="3621">
+          <cell r="B3621" t="str">
             <v>Lamar</v>
           </cell>
-          <cell r="C5907" t="str">
+          <cell r="C3621" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5908">
-          <cell r="B5908" t="str">
+        <row r="3622">
+          <cell r="B3622" t="str">
             <v>Lehigh</v>
           </cell>
-          <cell r="C5908" t="str">
+          <cell r="C3622" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5909">
-          <cell r="B5909" t="str">
+        <row r="3623">
+          <cell r="B3623" t="str">
             <v>Liberty</v>
           </cell>
-          <cell r="C5909" t="str">
+          <cell r="C3623" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5910">
-          <cell r="B5910" t="str">
+        <row r="3624">
+          <cell r="B3624" t="str">
             <v>Lipscomb</v>
           </cell>
-          <cell r="C5910" t="str">
+          <cell r="C3624" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5911">
-          <cell r="B5911" t="str">
+        <row r="3625">
+          <cell r="B3625" t="str">
             <v>Little Rock</v>
           </cell>
-          <cell r="C5911" t="str">
+          <cell r="C3625" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5912">
-          <cell r="B5912" t="str">
+        <row r="3626">
+          <cell r="B3626" t="str">
             <v>Long Island University</v>
           </cell>
-          <cell r="C5912" t="str">
+          <cell r="C3626" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5913">
-          <cell r="B5913" t="str">
+        <row r="3627">
+          <cell r="B3627" t="str">
             <v>Longwood</v>
           </cell>
-          <cell r="C5913" t="str">
+          <cell r="C3627" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5914">
-          <cell r="B5914" t="str">
+        <row r="3628">
+          <cell r="B3628" t="str">
             <v>Louisiana</v>
           </cell>
-          <cell r="C5914" t="str">
+          <cell r="C3628" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5915">
-          <cell r="B5915" t="str">
+        <row r="3629">
+          <cell r="B3629" t="str">
             <v>Louisiana State</v>
           </cell>
-          <cell r="C5915" t="str">
+          <cell r="C3629" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5916">
-          <cell r="B5916" t="str">
+        <row r="3630">
+          <cell r="B3630" t="str">
             <v>Louisiana Tech</v>
           </cell>
-          <cell r="C5916" t="str">
+          <cell r="C3630" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5917">
-          <cell r="B5917" t="str">
+        <row r="3631">
+          <cell r="B3631" t="str">
             <v>Louisiana-Monroe</v>
           </cell>
-          <cell r="C5917" t="str">
+          <cell r="C3631" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="5918">
-          <cell r="B5918" t="str">
+        <row r="3632">
+          <cell r="B3632" t="str">
             <v>Louisville</v>
           </cell>
-          <cell r="C5918" t="str">
+          <cell r="C3632" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5919">
-          <cell r="B5919" t="str">
+        <row r="3633">
+          <cell r="B3633" t="str">
             <v>Loyola (IL)</v>
           </cell>
-          <cell r="C5919" t="str">
+          <cell r="C3633" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5920">
-          <cell r="B5920" t="str">
+        <row r="3634">
+          <cell r="B3634" t="str">
             <v>Loyola (MD)</v>
           </cell>
-          <cell r="C5920" t="str">
+          <cell r="C3634" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5921">
-          <cell r="B5921" t="str">
+        <row r="3635">
+          <cell r="B3635" t="str">
             <v>Loyola Marymount</v>
           </cell>
-          <cell r="C5921" t="str">
+          <cell r="C3635" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="5922">
-          <cell r="B5922" t="str">
+        <row r="3636">
+          <cell r="B3636" t="str">
             <v>Maine</v>
           </cell>
-          <cell r="C5922" t="str">
+          <cell r="C3636" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5923">
-          <cell r="B5923" t="str">
+        <row r="3637">
+          <cell r="B3637" t="str">
             <v>Manhattan</v>
           </cell>
-          <cell r="C5923" t="str">
+          <cell r="C3637" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5924">
-          <cell r="B5924" t="str">
+        <row r="3638">
+          <cell r="B3638" t="str">
             <v>Marist</v>
           </cell>
-          <cell r="C5924" t="str">
+          <cell r="C3638" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5925">
-          <cell r="B5925" t="str">
+        <row r="3639">
+          <cell r="B3639" t="str">
             <v>Marquette</v>
           </cell>
-          <cell r="C5925" t="str">
+          <cell r="C3639" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="5926">
-          <cell r="B5926" t="str">
+        <row r="3640">
+          <cell r="B3640" t="str">
             <v>Marshall</v>
           </cell>
-          <cell r="C5926" t="str">
+          <cell r="C3640" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5927">
-          <cell r="B5927" t="str">
+        <row r="3641">
+          <cell r="B3641" t="str">
             <v>Maryland</v>
           </cell>
-          <cell r="C5927" t="str">
+          <cell r="C3641" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5928">
-          <cell r="B5928" t="str">
+        <row r="3642">
+          <cell r="B3642" t="str">
             <v>Maryland-Baltimore County</v>
           </cell>
-          <cell r="C5928" t="str">
+          <cell r="C3642" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5929">
-          <cell r="B5929" t="str">
+        <row r="3643">
+          <cell r="B3643" t="str">
             <v>Maryland-Eastern Shore</v>
           </cell>
-          <cell r="C5929" t="str">
+          <cell r="C3643" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5930">
-          <cell r="B5930" t="str">
+        <row r="3644">
+          <cell r="B3644" t="str">
             <v>Massachusetts</v>
           </cell>
-          <cell r="C5930" t="str">
+          <cell r="C3644" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="5931">
-          <cell r="B5931" t="str">
+        <row r="3645">
+          <cell r="B3645" t="str">
             <v>Massachusetts-Lowell</v>
           </cell>
-          <cell r="C5931" t="str">
+          <cell r="C3645" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5932">
-          <cell r="B5932" t="str">
+        <row r="3646">
+          <cell r="B3646" t="str">
             <v>McNeese State</v>
           </cell>
-          <cell r="C5932" t="str">
+          <cell r="C3646" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5933">
-          <cell r="B5933" t="str">
+        <row r="3647">
+          <cell r="B3647" t="str">
             <v>Memphis</v>
           </cell>
-          <cell r="C5933" t="str">
+          <cell r="C3647" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="5934">
-          <cell r="B5934" t="str">
+        <row r="3648">
+          <cell r="B3648" t="str">
             <v>Mercer</v>
           </cell>
-          <cell r="C5934" t="str">
+          <cell r="C3648" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5935">
-          <cell r="B5935" t="str">
+        <row r="3649">
+          <cell r="B3649" t="str">
             <v>Merrimack</v>
           </cell>
-          <cell r="C5935" t="str">
+          <cell r="C3649" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5936">
-          <cell r="B5936" t="str">
+        <row r="3650">
+          <cell r="B3650" t="str">
             <v>Miami (FL)</v>
           </cell>
-          <cell r="C5936" t="str">
+          <cell r="C3650" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5937">
-          <cell r="B5937" t="str">
+        <row r="3651">
+          <cell r="B3651" t="str">
             <v>Miami (OH)</v>
           </cell>
-          <cell r="C5937" t="str">
+          <cell r="C3651" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5938">
-          <cell r="B5938" t="str">
+        <row r="3652">
+          <cell r="B3652" t="str">
             <v>Michigan</v>
           </cell>
-          <cell r="C5938" t="str">
+          <cell r="C3652" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5939">
-          <cell r="B5939" t="str">
+        <row r="3653">
+          <cell r="B3653" t="str">
             <v>Michigan State</v>
           </cell>
-          <cell r="C5939" t="str">
+          <cell r="C3653" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5940">
-          <cell r="B5940" t="str">
+        <row r="3654">
+          <cell r="B3654" t="str">
             <v>Middle Tennessee</v>
           </cell>
-          <cell r="C5940" t="str">
+          <cell r="C3654" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5941">
-          <cell r="B5941" t="str">
+        <row r="3655">
+          <cell r="B3655" t="str">
             <v>Milwaukee</v>
           </cell>
-          <cell r="C5941" t="str">
+          <cell r="C3655" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5942">
-          <cell r="B5942" t="str">
+        <row r="3656">
+          <cell r="B3656" t="str">
             <v>Minnesota</v>
           </cell>
-          <cell r="C5942" t="str">
+          <cell r="C3656" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5943">
-          <cell r="B5943" t="str">
+        <row r="3657">
+          <cell r="B3657" t="str">
             <v>Mississippi</v>
           </cell>
-          <cell r="C5943" t="str">
+          <cell r="C3657" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5944">
-          <cell r="B5944" t="str">
+        <row r="3658">
+          <cell r="B3658" t="str">
             <v>Mississippi State</v>
           </cell>
-          <cell r="C5944" t="str">
+          <cell r="C3658" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5945">
-          <cell r="B5945" t="str">
+        <row r="3659">
+          <cell r="B3659" t="str">
             <v>Mississippi Valley State</v>
           </cell>
-          <cell r="C5945" t="str">
+          <cell r="C3659" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="5946">
-          <cell r="B5946" t="str">
+        <row r="3660">
+          <cell r="B3660" t="str">
             <v>Missouri</v>
           </cell>
-          <cell r="C5946" t="str">
+          <cell r="C3660" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="5947">
-          <cell r="B5947" t="str">
+        <row r="3661">
+          <cell r="B3661" t="str">
             <v>Missouri State</v>
           </cell>
-          <cell r="C5947" t="str">
+          <cell r="C3661" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5948">
-          <cell r="B5948" t="str">
+        <row r="3662">
+          <cell r="B3662" t="str">
             <v>Missouri-Kansas City</v>
           </cell>
-          <cell r="C5948" t="str">
+          <cell r="C3662" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5949">
-          <cell r="B5949" t="str">
+        <row r="3663">
+          <cell r="B3663" t="str">
             <v>Monmouth</v>
           </cell>
-          <cell r="C5949" t="str">
+          <cell r="C3663" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5950">
-          <cell r="B5950" t="str">
+        <row r="3664">
+          <cell r="B3664" t="str">
             <v>Montana</v>
           </cell>
-          <cell r="C5950" t="str">
+          <cell r="C3664" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5951">
-          <cell r="B5951" t="str">
+        <row r="3665">
+          <cell r="B3665" t="str">
             <v>Montana State</v>
           </cell>
-          <cell r="C5951" t="str">
+          <cell r="C3665" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5952">
-          <cell r="B5952" t="str">
+        <row r="3666">
+          <cell r="B3666" t="str">
             <v>Morehead State</v>
           </cell>
-          <cell r="C5952" t="str">
+          <cell r="C3666" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5953">
-          <cell r="B5953" t="str">
+        <row r="3667">
+          <cell r="B3667" t="str">
             <v>Morgan State</v>
           </cell>
-          <cell r="C5953" t="str">
+          <cell r="C3667" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5954">
-          <cell r="B5954" t="str">
+        <row r="3668">
+          <cell r="B3668" t="str">
             <v>Mount St. Mary's</v>
           </cell>
-          <cell r="C5954" t="str">
+          <cell r="C3668" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="5955">
-          <cell r="B5955" t="str">
+        <row r="3669">
+          <cell r="B3669" t="str">
             <v>Murray State</v>
           </cell>
-          <cell r="C5955" t="str">
+          <cell r="C3669" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="5956">
-          <cell r="B5956" t="str">
+        <row r="3670">
+          <cell r="B3670" t="str">
             <v>Navy</v>
           </cell>
-          <cell r="C5956" t="str">
+          <cell r="C3670" t="str">
             <v>Patriot</v>
           </cell>
         </row>
-        <row r="5957">
-          <cell r="B5957" t="str">
+        <row r="3671">
+          <cell r="B3671" t="str">
             <v>Nebraska</v>
           </cell>
-          <cell r="C5957" t="str">
+          <cell r="C3671" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5958">
-          <cell r="B5958" t="str">
+        <row r="3672">
+          <cell r="B3672" t="str">
             <v>Nevada</v>
           </cell>
-          <cell r="C5958" t="str">
+          <cell r="C3672" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5959">
-          <cell r="B5959" t="str">
+        <row r="3673">
+          <cell r="B3673" t="str">
             <v>Nevada-Las Vegas</v>
           </cell>
-          <cell r="C5959" t="str">
+          <cell r="C3673" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5960">
-          <cell r="B5960" t="str">
+        <row r="3674">
+          <cell r="B3674" t="str">
             <v>New Hampshire</v>
           </cell>
-          <cell r="C5960" t="str">
+          <cell r="C3674" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="5961">
-          <cell r="B5961" t="str">
+        <row r="3675">
+          <cell r="B3675" t="str">
             <v>New Mexico</v>
           </cell>
-          <cell r="C5961" t="str">
+          <cell r="C3675" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="5962">
-          <cell r="B5962" t="str">
+        <row r="3676">
+          <cell r="B3676" t="str">
             <v>New Mexico State</v>
           </cell>
-          <cell r="C5962" t="str">
+          <cell r="C3676" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="5963">
-          <cell r="B5963" t="str">
+        <row r="3677">
+          <cell r="B3677" t="str">
             <v>New Orleans</v>
           </cell>
-          <cell r="C5963" t="str">
+          <cell r="C3677" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5964">
-          <cell r="B5964" t="str">
+        <row r="3678">
+          <cell r="B3678" t="str">
             <v>Niagara</v>
           </cell>
-          <cell r="C5964" t="str">
+          <cell r="C3678" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="5965">
-          <cell r="B5965" t="str">
+        <row r="3679">
+          <cell r="B3679" t="str">
             <v>Nicholls State</v>
           </cell>
-          <cell r="C5965" t="str">
+          <cell r="C3679" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5966">
-          <cell r="B5966" t="str">
+        <row r="3680">
+          <cell r="B3680" t="str">
             <v>NJIT</v>
           </cell>
-          <cell r="C5966" t="str">
+          <cell r="C3680" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5967">
-          <cell r="B5967" t="str">
+        <row r="3681">
+          <cell r="B3681" t="str">
             <v>Norfolk State</v>
           </cell>
-          <cell r="C5967" t="str">
+          <cell r="C3681" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5968">
-          <cell r="B5968" t="str">
+        <row r="3682">
+          <cell r="B3682" t="str">
             <v>North Alabama</v>
           </cell>
-          <cell r="C5968" t="str">
+          <cell r="C3682" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5969">
-          <cell r="B5969" t="str">
+        <row r="3683">
+          <cell r="B3683" t="str">
             <v>North Carolina</v>
           </cell>
-          <cell r="C5969" t="str">
+          <cell r="C3683" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5970">
-          <cell r="B5970" t="str">
+        <row r="3684">
+          <cell r="B3684" t="str">
             <v>North Carolina A&amp;T</v>
           </cell>
-          <cell r="C5970" t="str">
+          <cell r="C3684" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5971">
-          <cell r="B5971" t="str">
+        <row r="3685">
+          <cell r="B3685" t="str">
             <v>North Carolina Central</v>
           </cell>
-          <cell r="C5971" t="str">
+          <cell r="C3685" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="5972">
-          <cell r="B5972" t="str">
+        <row r="3686">
+          <cell r="B3686" t="str">
             <v>North Carolina State</v>
           </cell>
-          <cell r="C5972" t="str">
+          <cell r="C3686" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5973">
-          <cell r="B5973" t="str">
+        <row r="3687">
+          <cell r="B3687" t="str">
             <v>North Carolina-Asheville</v>
           </cell>
-          <cell r="C5973" t="str">
+          <cell r="C3687" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="5974">
-          <cell r="B5974" t="str">
+        <row r="3688">
+          <cell r="B3688" t="str">
             <v>North Carolina-Greensboro</v>
           </cell>
-          <cell r="C5974" t="str">
+          <cell r="C3688" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="5975">
-          <cell r="B5975" t="str">
+        <row r="3689">
+          <cell r="B3689" t="str">
             <v>North Carolina-Wilmington</v>
           </cell>
-          <cell r="C5975" t="str">
+          <cell r="C3689" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5976">
-          <cell r="B5976" t="str">
+        <row r="3690">
+          <cell r="B3690" t="str">
             <v>North Dakota</v>
           </cell>
-          <cell r="C5976" t="str">
+          <cell r="C3690" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="5977">
-          <cell r="B5977" t="str">
+        <row r="3691">
+          <cell r="B3691" t="str">
             <v>North Dakota State</v>
           </cell>
-          <cell r="C5977" t="str">
+          <cell r="C3691" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="5978">
-          <cell r="B5978" t="str">
+        <row r="3692">
+          <cell r="B3692" t="str">
             <v>North Florida</v>
           </cell>
-          <cell r="C5978" t="str">
+          <cell r="C3692" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="5979">
-          <cell r="B5979" t="str">
+        <row r="3693">
+          <cell r="B3693" t="str">
             <v>North Texas</v>
           </cell>
-          <cell r="C5979" t="str">
+          <cell r="C3693" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5980">
-          <cell r="B5980" t="str">
+        <row r="3694">
+          <cell r="B3694" t="str">
             <v>Northeastern</v>
           </cell>
-          <cell r="C5980" t="str">
+          <cell r="C3694" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="5981">
-          <cell r="B5981" t="str">
+        <row r="3695">
+          <cell r="B3695" t="str">
             <v>Northern Arizona</v>
           </cell>
-          <cell r="C5981" t="str">
+          <cell r="C3695" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5982">
-          <cell r="B5982" t="str">
+        <row r="3696">
+          <cell r="B3696" t="str">
             <v>Northern Colorado</v>
           </cell>
-          <cell r="C5982" t="str">
+          <cell r="C3696" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="5983">
-          <cell r="B5983" t="str">
+        <row r="3697">
+          <cell r="B3697" t="str">
             <v>Northern Illinois</v>
           </cell>
-          <cell r="C5983" t="str">
+          <cell r="C3697" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="5984">
-          <cell r="B5984" t="str">
+        <row r="3698">
+          <cell r="B3698" t="str">
             <v>Northern Iowa</v>
           </cell>
-          <cell r="C5984" t="str">
+          <cell r="C3698" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="5985">
-          <cell r="B5985" t="str">
+        <row r="3699">
+          <cell r="B3699" t="str">
             <v>Northern Kentucky</v>
           </cell>
-          <cell r="C5985" t="str">
+          <cell r="C3699" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5986">
-          <cell r="B5986" t="str">
+        <row r="3700">
+          <cell r="B3700" t="str">
             <v>Northwestern</v>
           </cell>
-          <cell r="C5986" t="str">
+          <cell r="C3700" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5987">
-          <cell r="B5987" t="str">
+        <row r="3701">
+          <cell r="B3701" t="str">
             <v>Northwestern State</v>
           </cell>
-          <cell r="C5987" t="str">
+          <cell r="C3701" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="5988">
-          <cell r="B5988" t="str">
+        <row r="3702">
+          <cell r="B3702" t="str">
             <v>Notre Dame</v>
           </cell>
-          <cell r="C5988" t="str">
+          <cell r="C3702" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="5989">
-          <cell r="B5989" t="str">
+        <row r="3703">
+          <cell r="B3703" t="str">
             <v>Oakland</v>
           </cell>
-          <cell r="C5989" t="str">
+          <cell r="C3703" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="5990">
-          <cell r="B5990" t="str">
+        <row r="3704">
+          <cell r="B3704" t="str">
             <v>Ohio</v>
           </cell>
-          <cell r="C5990" t="str">
+          <cell r="C3704" t="str">
             <v>MAC (East)</v>
           </cell>
         </row>
-        <row r="5991">
-          <cell r="B5991" t="str">
+        <row r="3705">
+          <cell r="B3705" t="str">
             <v>Ohio State</v>
           </cell>
-          <cell r="C5991" t="str">
+          <cell r="C3705" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="5992">
-          <cell r="B5992" t="str">
+        <row r="3706">
+          <cell r="B3706" t="str">
             <v>Oklahoma</v>
           </cell>
-          <cell r="C5992" t="str">
+          <cell r="C3706" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5993">
-          <cell r="B5993" t="str">
+        <row r="3707">
+          <cell r="B3707" t="str">
             <v>Oklahoma State</v>
           </cell>
-          <cell r="C5993" t="str">
+          <cell r="C3707" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="5994">
-          <cell r="B5994" t="str">
+        <row r="3708">
+          <cell r="B3708" t="str">
             <v>Old Dominion</v>
           </cell>
-          <cell r="C5994" t="str">
+          <cell r="C3708" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="5995">
-          <cell r="B5995" t="str">
+        <row r="3709">
+          <cell r="B3709" t="str">
             <v>Omaha</v>
           </cell>
-          <cell r="C5995" t="str">
+          <cell r="C3709" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="5996">
-          <cell r="B5996" t="str">
+        <row r="3710">
+          <cell r="B3710" t="str">
             <v>Oral Roberts</v>
           </cell>
-          <cell r="C5996" t="str">
+          <cell r="C3710" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="5997">
-          <cell r="B5997" t="str">
+        <row r="3711">
+          <cell r="B3711" t="str">
             <v>Oregon</v>
           </cell>
-          <cell r="C5997" t="str">
+          <cell r="C3711" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="5998">
-          <cell r="B5998" t="str">
+        <row r="3712">
+          <cell r="B3712" t="str">
             <v>Oregon State</v>
           </cell>
-          <cell r="C5998" t="str">
+          <cell r="C3712" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="5999">
-          <cell r="B5999" t="str">
+        <row r="3713">
+          <cell r="B3713" t="str">
             <v>Pacific</v>
           </cell>
-          <cell r="C5999" t="str">
+          <cell r="C3713" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6000">
-          <cell r="B6000" t="str">
+        <row r="3714">
+          <cell r="B3714" t="str">
             <v>Penn State</v>
           </cell>
-          <cell r="C6000" t="str">
+          <cell r="C3714" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="6001">
-          <cell r="B6001" t="str">
+        <row r="3715">
+          <cell r="B3715" t="str">
             <v>Pennsylvania</v>
           </cell>
-          <cell r="C6001" t="str">
+          <cell r="C3715" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="6002">
-          <cell r="B6002" t="str">
+        <row r="3716">
+          <cell r="B3716" t="str">
             <v>Pepperdine</v>
           </cell>
-          <cell r="C6002" t="str">
+          <cell r="C3716" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6003">
-          <cell r="B6003" t="str">
+        <row r="3717">
+          <cell r="B3717" t="str">
             <v>Pittsburgh</v>
           </cell>
-          <cell r="C6003" t="str">
+          <cell r="C3717" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="6004">
-          <cell r="B6004" t="str">
+        <row r="3718">
+          <cell r="B3718" t="str">
             <v>Portland</v>
           </cell>
-          <cell r="C6004" t="str">
+          <cell r="C3718" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6005">
-          <cell r="B6005" t="str">
+        <row r="3719">
+          <cell r="B3719" t="str">
             <v>Portland State</v>
           </cell>
-          <cell r="C6005" t="str">
+          <cell r="C3719" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="6006">
-          <cell r="B6006" t="str">
+        <row r="3720">
+          <cell r="B3720" t="str">
             <v>Prairie View</v>
           </cell>
-          <cell r="C6006" t="str">
+          <cell r="C3720" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="6007">
-          <cell r="B6007" t="str">
+        <row r="3721">
+          <cell r="B3721" t="str">
             <v>Presbyterian</v>
           </cell>
-          <cell r="C6007" t="str">
+          <cell r="C3721" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="6008">
-          <cell r="B6008" t="str">
+        <row r="3722">
+          <cell r="B3722" t="str">
             <v>Princeton</v>
           </cell>
-          <cell r="C6008" t="str">
+          <cell r="C3722" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="6009">
-          <cell r="B6009" t="str">
+        <row r="3723">
+          <cell r="B3723" t="str">
             <v>Providence</v>
           </cell>
-          <cell r="C6009" t="str">
+          <cell r="C3723" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="6010">
-          <cell r="B6010" t="str">
+        <row r="3724">
+          <cell r="B3724" t="str">
             <v>Purdue</v>
           </cell>
-          <cell r="C6010" t="str">
+          <cell r="C3724" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="6011">
-          <cell r="B6011" t="str">
+        <row r="3725">
+          <cell r="B3725" t="str">
             <v>Purdue-Fort Wayne</v>
           </cell>
-          <cell r="C6011" t="str">
+          <cell r="C3725" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="6012">
-          <cell r="B6012" t="str">
+        <row r="3726">
+          <cell r="B3726" t="str">
             <v>Quinnipiac</v>
           </cell>
-          <cell r="C6012" t="str">
+          <cell r="C3726" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="6013">
-          <cell r="B6013" t="str">
+        <row r="3727">
+          <cell r="B3727" t="str">
             <v>Radford</v>
           </cell>
-          <cell r="C6013" t="str">
+          <cell r="C3727" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="6014">
-          <cell r="B6014" t="str">
+        <row r="3728">
+          <cell r="B3728" t="str">
             <v>Rhode Island</v>
           </cell>
-          <cell r="C6014" t="str">
+          <cell r="C3728" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6015">
-          <cell r="B6015" t="str">
+        <row r="3729">
+          <cell r="B3729" t="str">
             <v>Rice</v>
           </cell>
-          <cell r="C6015" t="str">
+          <cell r="C3729" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="6016">
-          <cell r="B6016" t="str">
+        <row r="3730">
+          <cell r="B3730" t="str">
             <v>Richmond</v>
           </cell>
-          <cell r="C6016" t="str">
+          <cell r="C3730" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6017">
-          <cell r="B6017" t="str">
+        <row r="3731">
+          <cell r="B3731" t="str">
             <v>Rider</v>
           </cell>
-          <cell r="C6017" t="str">
+          <cell r="C3731" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="6018">
-          <cell r="B6018" t="str">
+        <row r="3732">
+          <cell r="B3732" t="str">
             <v>Robert Morris</v>
           </cell>
-          <cell r="C6018" t="str">
+          <cell r="C3732" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="6019">
-          <cell r="B6019" t="str">
+        <row r="3733">
+          <cell r="B3733" t="str">
             <v>Rutgers</v>
           </cell>
-          <cell r="C6019" t="str">
+          <cell r="C3733" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="6020">
-          <cell r="B6020" t="str">
+        <row r="3734">
+          <cell r="B3734" t="str">
             <v>Sacramento State</v>
           </cell>
-          <cell r="C6020" t="str">
+          <cell r="C3734" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="6021">
-          <cell r="B6021" t="str">
+        <row r="3735">
+          <cell r="B3735" t="str">
             <v>Sacred Heart</v>
           </cell>
-          <cell r="C6021" t="str">
+          <cell r="C3735" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="6022">
-          <cell r="B6022" t="str">
+        <row r="3736">
+          <cell r="B3736" t="str">
             <v>Saint Francis (PA)</v>
           </cell>
-          <cell r="C6022" t="str">
+          <cell r="C3736" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="6023">
-          <cell r="B6023" t="str">
+        <row r="3737">
+          <cell r="B3737" t="str">
             <v>Saint Joseph's</v>
           </cell>
-          <cell r="C6023" t="str">
+          <cell r="C3737" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6024">
-          <cell r="B6024" t="str">
+        <row r="3738">
+          <cell r="B3738" t="str">
             <v>Saint Louis</v>
           </cell>
-          <cell r="C6024" t="str">
+          <cell r="C3738" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6025">
-          <cell r="B6025" t="str">
+        <row r="3739">
+          <cell r="B3739" t="str">
             <v>Saint Mary's (CA)</v>
           </cell>
-          <cell r="C6025" t="str">
+          <cell r="C3739" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6026">
-          <cell r="B6026" t="str">
+        <row r="3740">
+          <cell r="B3740" t="str">
             <v>Saint Peter's</v>
           </cell>
-          <cell r="C6026" t="str">
+          <cell r="C3740" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="6027">
-          <cell r="B6027" t="str">
+        <row r="3741">
+          <cell r="B3741" t="str">
             <v>Sam Houston State</v>
           </cell>
-          <cell r="C6027" t="str">
+          <cell r="C3741" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="6028">
-          <cell r="B6028" t="str">
+        <row r="3742">
+          <cell r="B3742" t="str">
             <v>Samford</v>
           </cell>
-          <cell r="C6028" t="str">
+          <cell r="C3742" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="6029">
-          <cell r="B6029" t="str">
+        <row r="3743">
+          <cell r="B3743" t="str">
             <v>San Diego</v>
           </cell>
-          <cell r="C6029" t="str">
+          <cell r="C3743" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6030">
-          <cell r="B6030" t="str">
+        <row r="3744">
+          <cell r="B3744" t="str">
             <v>San Diego State</v>
           </cell>
-          <cell r="C6030" t="str">
+          <cell r="C3744" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="6031">
-          <cell r="B6031" t="str">
+        <row r="3745">
+          <cell r="B3745" t="str">
             <v>San Francisco</v>
           </cell>
-          <cell r="C6031" t="str">
+          <cell r="C3745" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6032">
-          <cell r="B6032" t="str">
+        <row r="3746">
+          <cell r="B3746" t="str">
             <v>San Jose State</v>
           </cell>
-          <cell r="C6032" t="str">
+          <cell r="C3746" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="6033">
-          <cell r="B6033" t="str">
+        <row r="3747">
+          <cell r="B3747" t="str">
             <v>Santa Clara</v>
           </cell>
-          <cell r="C6033" t="str">
+          <cell r="C3747" t="str">
             <v>WCC</v>
           </cell>
         </row>
-        <row r="6034">
-          <cell r="B6034" t="str">
+        <row r="3748">
+          <cell r="B3748" t="str">
             <v>Seattle</v>
           </cell>
-          <cell r="C6034" t="str">
+          <cell r="C3748" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="6035">
-          <cell r="B6035" t="str">
+        <row r="3749">
+          <cell r="B3749" t="str">
             <v>Seton Hall</v>
           </cell>
-          <cell r="C6035" t="str">
+          <cell r="C3749" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="6036">
-          <cell r="B6036" t="str">
+        <row r="3750">
+          <cell r="B3750" t="str">
             <v>Siena</v>
           </cell>
-          <cell r="C6036" t="str">
+          <cell r="C3750" t="str">
             <v>MAAC</v>
           </cell>
         </row>
-        <row r="6037">
-          <cell r="B6037" t="str">
+        <row r="3751">
+          <cell r="B3751" t="str">
             <v>SIU Edwardsville</v>
           </cell>
-          <cell r="C6037" t="str">
+          <cell r="C3751" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="6038">
-          <cell r="B6038" t="str">
+        <row r="3752">
+          <cell r="B3752" t="str">
             <v>South Alabama</v>
           </cell>
-          <cell r="C6038" t="str">
+          <cell r="C3752" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="6039">
-          <cell r="B6039" t="str">
+        <row r="3753">
+          <cell r="B3753" t="str">
             <v>South Carolina</v>
           </cell>
-          <cell r="C6039" t="str">
+          <cell r="C3753" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="6040">
-          <cell r="B6040" t="str">
+        <row r="3754">
+          <cell r="B3754" t="str">
             <v>South Carolina State</v>
           </cell>
-          <cell r="C6040" t="str">
+          <cell r="C3754" t="str">
             <v>MEAC</v>
           </cell>
         </row>
-        <row r="6041">
-          <cell r="B6041" t="str">
+        <row r="3755">
+          <cell r="B3755" t="str">
             <v>South Carolina Upstate</v>
           </cell>
-          <cell r="C6041" t="str">
+          <cell r="C3755" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="6042">
-          <cell r="B6042" t="str">
+        <row r="3756">
+          <cell r="B3756" t="str">
             <v>South Dakota</v>
           </cell>
-          <cell r="C6042" t="str">
+          <cell r="C3756" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="6043">
-          <cell r="B6043" t="str">
+        <row r="3757">
+          <cell r="B3757" t="str">
             <v>South Dakota State</v>
           </cell>
-          <cell r="C6043" t="str">
+          <cell r="C3757" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="6044">
-          <cell r="B6044" t="str">
+        <row r="3758">
+          <cell r="B3758" t="str">
             <v>South Florida</v>
           </cell>
-          <cell r="C6044" t="str">
+          <cell r="C3758" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6045">
-          <cell r="B6045" t="str">
+        <row r="3759">
+          <cell r="B3759" t="str">
             <v>Southeast Missouri State</v>
           </cell>
-          <cell r="C6045" t="str">
+          <cell r="C3759" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="6046">
-          <cell r="B6046" t="str">
+        <row r="3760">
+          <cell r="B3760" t="str">
             <v>Southeastern Louisiana</v>
           </cell>
-          <cell r="C6046" t="str">
+          <cell r="C3760" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="6047">
-          <cell r="B6047" t="str">
+        <row r="3761">
+          <cell r="B3761" t="str">
             <v>Southern</v>
           </cell>
-          <cell r="C6047" t="str">
+          <cell r="C3761" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="6048">
-          <cell r="B6048" t="str">
+        <row r="3762">
+          <cell r="B3762" t="str">
             <v>Southern California</v>
           </cell>
-          <cell r="C6048" t="str">
+          <cell r="C3762" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6049">
-          <cell r="B6049" t="str">
+        <row r="3763">
+          <cell r="B3763" t="str">
             <v>Southern Illinois</v>
           </cell>
-          <cell r="C6049" t="str">
+          <cell r="C3763" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="6050">
-          <cell r="B6050" t="str">
+        <row r="3764">
+          <cell r="B3764" t="str">
             <v>Southern Methodist</v>
           </cell>
-          <cell r="C6050" t="str">
+          <cell r="C3764" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6051">
-          <cell r="B6051" t="str">
+        <row r="3765">
+          <cell r="B3765" t="str">
             <v>Southern Mississippi</v>
           </cell>
-          <cell r="C6051" t="str">
+          <cell r="C3765" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="6052">
-          <cell r="B6052" t="str">
+        <row r="3766">
+          <cell r="B3766" t="str">
             <v>Southern Utah</v>
           </cell>
-          <cell r="C6052" t="str">
+          <cell r="C3766" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="6053">
-          <cell r="B6053" t="str">
+        <row r="3767">
+          <cell r="B3767" t="str">
             <v>St. Bonaventure</v>
           </cell>
-          <cell r="C6053" t="str">
+          <cell r="C3767" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6054">
-          <cell r="B6054" t="str">
+        <row r="3768">
+          <cell r="B3768" t="str">
             <v>St. Francis (NY)</v>
           </cell>
-          <cell r="C6054" t="str">
+          <cell r="C3768" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="6055">
-          <cell r="B6055" t="str">
+        <row r="3769">
+          <cell r="B3769" t="str">
             <v>St. John's (NY)</v>
           </cell>
-          <cell r="C6055" t="str">
+          <cell r="C3769" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="6056">
-          <cell r="B6056" t="str">
+        <row r="3770">
+          <cell r="B3770" t="str">
             <v>Stanford</v>
           </cell>
-          <cell r="C6056" t="str">
+          <cell r="C3770" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6057">
-          <cell r="B6057" t="str">
+        <row r="3771">
+          <cell r="B3771" t="str">
             <v>Stephen F. Austin</v>
           </cell>
-          <cell r="C6057" t="str">
+          <cell r="C3771" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="6058">
-          <cell r="B6058" t="str">
+        <row r="3772">
+          <cell r="B3772" t="str">
             <v>Stetson</v>
           </cell>
-          <cell r="C6058" t="str">
+          <cell r="C3772" t="str">
             <v>A-Sun</v>
           </cell>
         </row>
-        <row r="6059">
-          <cell r="B6059" t="str">
+        <row r="3773">
+          <cell r="B3773" t="str">
             <v>Stony Brook</v>
           </cell>
-          <cell r="C6059" t="str">
+          <cell r="C3773" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="6060">
-          <cell r="B6060" t="str">
+        <row r="3774">
+          <cell r="B3774" t="str">
             <v>Syracuse</v>
           </cell>
-          <cell r="C6060" t="str">
+          <cell r="C3774" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="6061">
-          <cell r="B6061" t="str">
+        <row r="3775">
+          <cell r="B3775" t="str">
             <v>Temple</v>
           </cell>
-          <cell r="C6061" t="str">
+          <cell r="C3775" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6062">
-          <cell r="B6062" t="str">
+        <row r="3776">
+          <cell r="B3776" t="str">
             <v>Tennessee</v>
           </cell>
-          <cell r="C6062" t="str">
+          <cell r="C3776" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="6063">
-          <cell r="B6063" t="str">
+        <row r="3777">
+          <cell r="B3777" t="str">
             <v>Tennessee State</v>
           </cell>
-          <cell r="C6063" t="str">
+          <cell r="C3777" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="6064">
-          <cell r="B6064" t="str">
+        <row r="3778">
+          <cell r="B3778" t="str">
             <v>Tennessee Tech</v>
           </cell>
-          <cell r="C6064" t="str">
+          <cell r="C3778" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="6065">
-          <cell r="B6065" t="str">
+        <row r="3779">
+          <cell r="B3779" t="str">
             <v>Tennessee-Martin</v>
           </cell>
-          <cell r="C6065" t="str">
+          <cell r="C3779" t="str">
             <v>OVC</v>
           </cell>
         </row>
-        <row r="6066">
-          <cell r="B6066" t="str">
+        <row r="3780">
+          <cell r="B3780" t="str">
             <v>Texas</v>
           </cell>
-          <cell r="C6066" t="str">
+          <cell r="C3780" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="6067">
-          <cell r="B6067" t="str">
+        <row r="3781">
+          <cell r="B3781" t="str">
             <v>Texas A&amp;M</v>
           </cell>
-          <cell r="C6067" t="str">
+          <cell r="C3781" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="6068">
-          <cell r="B6068" t="str">
+        <row r="3782">
+          <cell r="B3782" t="str">
             <v>Texas A&amp;M-Corpus Christi</v>
           </cell>
-          <cell r="C6068" t="str">
+          <cell r="C3782" t="str">
             <v>Southland</v>
           </cell>
         </row>
-        <row r="6069">
-          <cell r="B6069" t="str">
+        <row r="3783">
+          <cell r="B3783" t="str">
             <v>Texas Christian</v>
           </cell>
-          <cell r="C6069" t="str">
+          <cell r="C3783" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="6070">
-          <cell r="B6070" t="str">
+        <row r="3784">
+          <cell r="B3784" t="str">
             <v>Texas Southern</v>
           </cell>
-          <cell r="C6070" t="str">
+          <cell r="C3784" t="str">
             <v>SWAC</v>
           </cell>
         </row>
-        <row r="6071">
-          <cell r="B6071" t="str">
+        <row r="3785">
+          <cell r="B3785" t="str">
             <v>Texas State</v>
           </cell>
-          <cell r="C6071" t="str">
+          <cell r="C3785" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="6072">
-          <cell r="B6072" t="str">
+        <row r="3786">
+          <cell r="B3786" t="str">
             <v>Texas Tech</v>
           </cell>
-          <cell r="C6072" t="str">
+          <cell r="C3786" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="6073">
-          <cell r="B6073" t="str">
+        <row r="3787">
+          <cell r="B3787" t="str">
             <v>Texas-Arlington</v>
           </cell>
-          <cell r="C6073" t="str">
+          <cell r="C3787" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="6074">
-          <cell r="B6074" t="str">
+        <row r="3788">
+          <cell r="B3788" t="str">
             <v>Texas-El Paso</v>
           </cell>
-          <cell r="C6074" t="str">
+          <cell r="C3788" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="6075">
-          <cell r="B6075" t="str">
+        <row r="3789">
+          <cell r="B3789" t="str">
             <v>Texas-Rio Grande Valley</v>
           </cell>
-          <cell r="C6075" t="str">
+          <cell r="C3789" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="6076">
-          <cell r="B6076" t="str">
+        <row r="3790">
+          <cell r="B3790" t="str">
             <v>Texas-San Antonio</v>
           </cell>
-          <cell r="C6076" t="str">
+          <cell r="C3790" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="6077">
-          <cell r="B6077" t="str">
+        <row r="3791">
+          <cell r="B3791" t="str">
             <v>Toledo</v>
           </cell>
-          <cell r="C6077" t="str">
+          <cell r="C3791" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="6078">
-          <cell r="B6078" t="str">
+        <row r="3792">
+          <cell r="B3792" t="str">
             <v>Towson</v>
           </cell>
-          <cell r="C6078" t="str">
+          <cell r="C3792" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="6079">
-          <cell r="B6079" t="str">
+        <row r="3793">
+          <cell r="B3793" t="str">
             <v>Troy</v>
           </cell>
-          <cell r="C6079" t="str">
+          <cell r="C3793" t="str">
             <v>Sun Belt</v>
           </cell>
         </row>
-        <row r="6080">
-          <cell r="B6080" t="str">
+        <row r="3794">
+          <cell r="B3794" t="str">
             <v>Tulane</v>
           </cell>
-          <cell r="C6080" t="str">
+          <cell r="C3794" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6081">
-          <cell r="B6081" t="str">
+        <row r="3795">
+          <cell r="B3795" t="str">
             <v>Tulsa</v>
           </cell>
-          <cell r="C6081" t="str">
+          <cell r="C3795" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6082">
-          <cell r="B6082" t="str">
+        <row r="3796">
+          <cell r="B3796" t="str">
             <v>UC-Davis</v>
           </cell>
-          <cell r="C6082" t="str">
+          <cell r="C3796" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="6083">
-          <cell r="B6083" t="str">
+        <row r="3797">
+          <cell r="B3797" t="str">
             <v>UC-Irvine</v>
           </cell>
-          <cell r="C6083" t="str">
+          <cell r="C3797" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="6084">
-          <cell r="B6084" t="str">
+        <row r="3798">
+          <cell r="B3798" t="str">
             <v>UC-Riverside</v>
           </cell>
-          <cell r="C6084" t="str">
+          <cell r="C3798" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="6085">
-          <cell r="B6085" t="str">
+        <row r="3799">
+          <cell r="B3799" t="str">
             <v>UC-Santa Barbara</v>
           </cell>
-          <cell r="C6085" t="str">
+          <cell r="C3799" t="str">
             <v>Big West</v>
           </cell>
         </row>
-        <row r="6086">
-          <cell r="B6086" t="str">
+        <row r="3800">
+          <cell r="B3800" t="str">
             <v>UCLA</v>
           </cell>
-          <cell r="C6086" t="str">
+          <cell r="C3800" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6087">
-          <cell r="B6087" t="str">
+        <row r="3801">
+          <cell r="B3801" t="str">
             <v>University of California</v>
           </cell>
-          <cell r="C6087" t="str">
+          <cell r="C3801" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6088">
-          <cell r="B6088" t="str">
+        <row r="3802">
+          <cell r="B3802" t="str">
             <v>Utah</v>
           </cell>
-          <cell r="C6088" t="str">
+          <cell r="C3802" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6089">
-          <cell r="B6089" t="str">
+        <row r="3803">
+          <cell r="B3803" t="str">
             <v>Utah State</v>
           </cell>
-          <cell r="C6089" t="str">
+          <cell r="C3803" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="6090">
-          <cell r="B6090" t="str">
+        <row r="3804">
+          <cell r="B3804" t="str">
             <v>Utah Valley</v>
           </cell>
-          <cell r="C6090" t="str">
+          <cell r="C3804" t="str">
             <v>WAC</v>
           </cell>
         </row>
-        <row r="6091">
-          <cell r="B6091" t="str">
+        <row r="3805">
+          <cell r="B3805" t="str">
             <v>Valparaiso</v>
           </cell>
-          <cell r="C6091" t="str">
+          <cell r="C3805" t="str">
             <v>MVC</v>
           </cell>
         </row>
-        <row r="6092">
-          <cell r="B6092" t="str">
+        <row r="3806">
+          <cell r="B3806" t="str">
             <v>Vanderbilt</v>
           </cell>
-          <cell r="C6092" t="str">
+          <cell r="C3806" t="str">
             <v>SEC</v>
           </cell>
         </row>
-        <row r="6093">
-          <cell r="B6093" t="str">
+        <row r="3807">
+          <cell r="B3807" t="str">
             <v>Vermont</v>
           </cell>
-          <cell r="C6093" t="str">
+          <cell r="C3807" t="str">
             <v>AEC</v>
           </cell>
         </row>
-        <row r="6094">
-          <cell r="B6094" t="str">
+        <row r="3808">
+          <cell r="B3808" t="str">
             <v>Villanova</v>
           </cell>
-          <cell r="C6094" t="str">
+          <cell r="C3808" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="6095">
-          <cell r="B6095" t="str">
+        <row r="3809">
+          <cell r="B3809" t="str">
             <v>Virginia</v>
           </cell>
-          <cell r="C6095" t="str">
+          <cell r="C3809" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="6096">
-          <cell r="B6096" t="str">
+        <row r="3810">
+          <cell r="B3810" t="str">
             <v>Virginia Commonwealth</v>
           </cell>
-          <cell r="C6096" t="str">
+          <cell r="C3810" t="str">
             <v>A-10</v>
           </cell>
         </row>
-        <row r="6097">
-          <cell r="B6097" t="str">
+        <row r="3811">
+          <cell r="B3811" t="str">
             <v>Virginia Tech</v>
           </cell>
-          <cell r="C6097" t="str">
+          <cell r="C3811" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="6098">
-          <cell r="B6098" t="str">
+        <row r="3812">
+          <cell r="B3812" t="str">
             <v>VMI</v>
           </cell>
-          <cell r="C6098" t="str">
+          <cell r="C3812" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="6099">
-          <cell r="B6099" t="str">
+        <row r="3813">
+          <cell r="B3813" t="str">
             <v>Wagner</v>
           </cell>
-          <cell r="C6099" t="str">
+          <cell r="C3813" t="str">
             <v>NEC</v>
           </cell>
         </row>
-        <row r="6100">
-          <cell r="B6100" t="str">
+        <row r="3814">
+          <cell r="B3814" t="str">
             <v>Wake Forest</v>
           </cell>
-          <cell r="C6100" t="str">
+          <cell r="C3814" t="str">
             <v>ACC</v>
           </cell>
         </row>
-        <row r="6101">
-          <cell r="B6101" t="str">
+        <row r="3815">
+          <cell r="B3815" t="str">
             <v>Washington</v>
           </cell>
-          <cell r="C6101" t="str">
+          <cell r="C3815" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6102">
-          <cell r="B6102" t="str">
+        <row r="3816">
+          <cell r="B3816" t="str">
             <v>Washington State</v>
           </cell>
-          <cell r="C6102" t="str">
+          <cell r="C3816" t="str">
             <v>Pac-12</v>
           </cell>
         </row>
-        <row r="6103">
-          <cell r="B6103" t="str">
+        <row r="3817">
+          <cell r="B3817" t="str">
             <v>Weber State</v>
           </cell>
-          <cell r="C6103" t="str">
+          <cell r="C3817" t="str">
             <v>Big Sky</v>
           </cell>
         </row>
-        <row r="6104">
-          <cell r="B6104" t="str">
+        <row r="3818">
+          <cell r="B3818" t="str">
             <v>West Virginia</v>
           </cell>
-          <cell r="C6104" t="str">
+          <cell r="C3818" t="str">
             <v>Big 12</v>
           </cell>
         </row>
-        <row r="6105">
-          <cell r="B6105" t="str">
+        <row r="3819">
+          <cell r="B3819" t="str">
             <v>Western Carolina</v>
           </cell>
-          <cell r="C6105" t="str">
+          <cell r="C3819" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="6106">
-          <cell r="B6106" t="str">
+        <row r="3820">
+          <cell r="B3820" t="str">
             <v>Western Illinois</v>
           </cell>
-          <cell r="C6106" t="str">
+          <cell r="C3820" t="str">
             <v>Summit</v>
           </cell>
         </row>
-        <row r="6107">
-          <cell r="B6107" t="str">
+        <row r="3821">
+          <cell r="B3821" t="str">
             <v>Western Kentucky</v>
           </cell>
-          <cell r="C6107" t="str">
+          <cell r="C3821" t="str">
             <v>CUSA</v>
           </cell>
         </row>
-        <row r="6108">
-          <cell r="B6108" t="str">
+        <row r="3822">
+          <cell r="B3822" t="str">
             <v>Western Michigan</v>
           </cell>
-          <cell r="C6108" t="str">
+          <cell r="C3822" t="str">
             <v>MAC (West)</v>
           </cell>
         </row>
-        <row r="6109">
-          <cell r="B6109" t="str">
+        <row r="3823">
+          <cell r="B3823" t="str">
             <v>Wichita State</v>
           </cell>
-          <cell r="C6109" t="str">
+          <cell r="C3823" t="str">
             <v>AAC</v>
           </cell>
         </row>
-        <row r="6110">
-          <cell r="B6110" t="str">
+        <row r="3824">
+          <cell r="B3824" t="str">
             <v>William &amp; Mary</v>
           </cell>
-          <cell r="C6110" t="str">
+          <cell r="C3824" t="str">
             <v>CAA</v>
           </cell>
         </row>
-        <row r="6111">
-          <cell r="B6111" t="str">
+        <row r="3825">
+          <cell r="B3825" t="str">
             <v>Winthrop</v>
           </cell>
-          <cell r="C6111" t="str">
+          <cell r="C3825" t="str">
             <v>Big South</v>
           </cell>
         </row>
-        <row r="6112">
-          <cell r="B6112" t="str">
+        <row r="3826">
+          <cell r="B3826" t="str">
             <v>Wisconsin</v>
           </cell>
-          <cell r="C6112" t="str">
+          <cell r="C3826" t="str">
             <v>Big Ten</v>
           </cell>
         </row>
-        <row r="6113">
-          <cell r="B6113" t="str">
+        <row r="3827">
+          <cell r="B3827" t="str">
             <v>Wofford</v>
           </cell>
-          <cell r="C6113" t="str">
+          <cell r="C3827" t="str">
             <v>Southern</v>
           </cell>
         </row>
-        <row r="6114">
-          <cell r="B6114" t="str">
+        <row r="3828">
+          <cell r="B3828" t="str">
             <v>Wright State</v>
           </cell>
-          <cell r="C6114" t="str">
+          <cell r="C3828" t="str">
             <v>Horizon</v>
           </cell>
         </row>
-        <row r="6115">
-          <cell r="B6115" t="str">
+        <row r="3829">
+          <cell r="B3829" t="str">
             <v>Wyoming</v>
           </cell>
-          <cell r="C6115" t="str">
+          <cell r="C3829" t="str">
             <v>MWC</v>
           </cell>
         </row>
-        <row r="6116">
-          <cell r="B6116" t="str">
+        <row r="3830">
+          <cell r="B3830" t="str">
             <v>Xavier</v>
           </cell>
-          <cell r="C6116" t="str">
+          <cell r="C3830" t="str">
             <v>Big East</v>
           </cell>
         </row>
-        <row r="6117">
-          <cell r="B6117" t="str">
+        <row r="3831">
+          <cell r="B3831" t="str">
             <v>Yale</v>
           </cell>
-          <cell r="C6117" t="str">
+          <cell r="C3831" t="str">
             <v>Ivy</v>
           </cell>
         </row>
-        <row r="6118">
-          <cell r="B6118" t="str">
+        <row r="3832">
+          <cell r="B3832" t="str">
             <v>Youngstown State</v>
           </cell>
-          <cell r="C6118" t="str">
+          <cell r="C3832" t="str">
             <v>Horizon</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L1407" totalsRowShown="0">
-  <autoFilter ref="A1:L1407"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L1407" totalsRowShown="0">
+  <autoFilter ref="A1:L1407" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:M2231">
     <sortCondition ref="C1:C2231"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="GameN" dataDxfId="11"/>
-    <tableColumn id="2" name="Date" dataDxfId="10"/>
-    <tableColumn id="3" name="Year" dataDxfId="9"/>
-    <tableColumn id="4" name="Round" dataDxfId="8"/>
-    <tableColumn id="5" name="Region" dataDxfId="7"/>
-    <tableColumn id="6" name="Favored" dataDxfId="6"/>
-    <tableColumn id="7" name="Seed" dataDxfId="5"/>
-    <tableColumn id="8" name="Team" dataDxfId="4"/>
-    <tableColumn id="9" name="Conf" dataDxfId="3"/>
-    <tableColumn id="10" name="Score" dataDxfId="2"/>
-    <tableColumn id="13" name="Winner" dataDxfId="1"/>
-    <tableColumn id="14" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="GameN" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Round" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Region" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Favored" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Seed" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Team" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Conf" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Score" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Winner" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4957,12 +4956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1408" sqref="H1408"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1342" sqref="H1342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55732,11 +55731,11 @@
         <v>11</v>
       </c>
       <c r="H1336" s="2" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="I1336" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>ACC</v>
       </c>
       <c r="J1336" s="2"/>
       <c r="K1336" s="2"/>
@@ -55763,11 +55762,11 @@
         <v>11</v>
       </c>
       <c r="H1337" s="2" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="I1337" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MVC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MWC</v>
       </c>
       <c r="J1337" s="2"/>
       <c r="K1337" s="2"/>
@@ -55793,12 +55792,10 @@
       <c r="G1338" s="2">
         <v>11</v>
       </c>
-      <c r="H1338" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1338" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big 12</v>
+      <c r="H1338" s="2"/>
+      <c r="I1338" s="2" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J1338" s="2"/>
       <c r="K1338" s="2"/>
@@ -55824,12 +55821,10 @@
       <c r="G1339" s="2">
         <v>11</v>
       </c>
-      <c r="H1339" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1339" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>A-Sun</v>
+      <c r="H1339" s="2"/>
+      <c r="I1339" s="2" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J1339" s="2"/>
       <c r="K1339" s="2"/>
@@ -55856,11 +55851,11 @@
         <v>16</v>
       </c>
       <c r="H1340" s="2" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="I1340" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>NEC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>SWAC</v>
       </c>
       <c r="J1340" s="2"/>
       <c r="K1340" s="2"/>
@@ -55887,11 +55882,11 @@
         <v>16</v>
       </c>
       <c r="H1341" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I1341" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>SWAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MAAC</v>
       </c>
       <c r="J1341" s="2"/>
       <c r="K1341" s="2"/>
@@ -55917,12 +55912,10 @@
       <c r="G1342" s="2">
         <v>16</v>
       </c>
-      <c r="H1342" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1342" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MEAC</v>
+      <c r="H1342" s="2"/>
+      <c r="I1342" s="2" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J1342" s="2"/>
       <c r="K1342" s="2"/>
@@ -55948,12 +55941,10 @@
       <c r="G1343" s="2">
         <v>16</v>
       </c>
-      <c r="H1343" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1343" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MAAC</v>
+      <c r="H1343" s="2"/>
+      <c r="I1343" s="2" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="J1343" s="2"/>
       <c r="K1343" s="2"/>
@@ -55983,7 +55974,7 @@
         <v>168</v>
       </c>
       <c r="I1344" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Big 12</v>
       </c>
       <c r="J1344" s="2"/>
@@ -56011,11 +56002,11 @@
         <v>16</v>
       </c>
       <c r="H1345" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I1345" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>SWAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>OVC</v>
       </c>
       <c r="J1345" s="2"/>
       <c r="K1345" s="2"/>
@@ -56042,11 +56033,11 @@
         <v>9</v>
       </c>
       <c r="H1346" s="2" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="I1346" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>SEC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1346" s="2"/>
       <c r="K1346" s="2"/>
@@ -56073,11 +56064,11 @@
         <v>8</v>
       </c>
       <c r="H1347" s="2" t="s">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="I1347" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>SEC</v>
       </c>
       <c r="J1347" s="2"/>
       <c r="K1347" s="2"/>
@@ -56107,7 +56098,7 @@
         <v>101</v>
       </c>
       <c r="I1348" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Pac-12</v>
       </c>
       <c r="J1348" s="2"/>
@@ -56135,11 +56126,11 @@
         <v>12</v>
       </c>
       <c r="H1349" s="2" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I1349" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>AAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MVC</v>
       </c>
       <c r="J1349" s="2"/>
       <c r="K1349" s="2"/>
@@ -56166,11 +56157,11 @@
         <v>4</v>
       </c>
       <c r="H1350" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I1350" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big East</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big 12</v>
       </c>
       <c r="J1350" s="2"/>
       <c r="K1350" s="2"/>
@@ -56200,7 +56191,7 @@
         <v>176</v>
       </c>
       <c r="I1351" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Southland</v>
       </c>
       <c r="J1351" s="2"/>
@@ -56228,11 +56219,11 @@
         <v>6</v>
       </c>
       <c r="H1352" s="2" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="I1352" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>SEC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Pac-12</v>
       </c>
       <c r="J1352" s="2"/>
       <c r="K1352" s="2"/>
@@ -56259,11 +56250,11 @@
         <v>11</v>
       </c>
       <c r="H1353" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I1353" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MVC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big 12</v>
       </c>
       <c r="J1353" s="2"/>
       <c r="K1353" s="2"/>
@@ -56290,11 +56281,11 @@
         <v>3</v>
       </c>
       <c r="H1354" s="2" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="I1354" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>ACC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1354" s="2"/>
       <c r="K1354" s="2"/>
@@ -56321,11 +56312,11 @@
         <v>14</v>
       </c>
       <c r="H1355" s="2" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="I1355" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>CAA</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>WAC</v>
       </c>
       <c r="J1355" s="2"/>
       <c r="K1355" s="2"/>
@@ -56352,10 +56343,10 @@
         <v>7</v>
       </c>
       <c r="H1356" s="2" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="I1356" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Big Ten</v>
       </c>
       <c r="J1356" s="2"/>
@@ -56383,11 +56374,11 @@
         <v>10</v>
       </c>
       <c r="H1357" s="2" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="I1357" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Pac-12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>A-10</v>
       </c>
       <c r="J1357" s="2"/>
       <c r="K1357" s="2"/>
@@ -56414,11 +56405,11 @@
         <v>2</v>
       </c>
       <c r="H1358" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="I1358" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big East</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>ACC</v>
       </c>
       <c r="J1358" s="2"/>
       <c r="K1358" s="2"/>
@@ -56445,11 +56436,11 @@
         <v>15</v>
       </c>
       <c r="H1359" s="2" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="I1359" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Summit</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big West</v>
       </c>
       <c r="J1359" s="2"/>
       <c r="K1359" s="2"/>
@@ -56476,11 +56467,11 @@
         <v>1</v>
       </c>
       <c r="H1360" s="2" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="I1360" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MWC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big 12</v>
       </c>
       <c r="J1360" s="2"/>
       <c r="K1360" s="2"/>
@@ -56507,11 +56498,11 @@
         <v>16</v>
       </c>
       <c r="H1361" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="I1361" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Ivy</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Sky</v>
       </c>
       <c r="J1361" s="2"/>
       <c r="K1361" s="2"/>
@@ -56538,11 +56529,11 @@
         <v>9</v>
       </c>
       <c r="H1362" s="2" t="s">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="I1362" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Pac-12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>SEC</v>
       </c>
       <c r="J1362" s="2"/>
       <c r="K1362" s="2"/>
@@ -56569,11 +56560,11 @@
         <v>8</v>
       </c>
       <c r="H1363" s="2" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I1363" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big 12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>WCC</v>
       </c>
       <c r="J1363" s="2"/>
       <c r="K1363" s="2"/>
@@ -56600,10 +56591,10 @@
         <v>5</v>
       </c>
       <c r="H1364" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I1364" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>SEC</v>
       </c>
       <c r="J1364" s="2"/>
@@ -56631,11 +56622,11 @@
         <v>12</v>
       </c>
       <c r="H1365" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I1365" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>AEC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>A-10</v>
       </c>
       <c r="J1365" s="2"/>
       <c r="K1365" s="2"/>
@@ -56662,10 +56653,10 @@
         <v>4</v>
       </c>
       <c r="H1366" s="2" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="I1366" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Big Ten</v>
       </c>
       <c r="J1366" s="2"/>
@@ -56693,11 +56684,11 @@
         <v>13</v>
       </c>
       <c r="H1367" s="2" t="s">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="I1367" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Patriot</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>AEC</v>
       </c>
       <c r="J1367" s="2"/>
       <c r="K1367" s="2"/>
@@ -56724,11 +56715,11 @@
         <v>6</v>
       </c>
       <c r="H1368" s="2" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="I1368" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big East</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1368" s="2"/>
       <c r="K1368" s="2"/>
@@ -56755,11 +56746,11 @@
         <v>11</v>
       </c>
       <c r="H1369" s="2" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="I1369" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>ACC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1369" s="2"/>
       <c r="K1369" s="2"/>
@@ -56786,11 +56777,11 @@
         <v>3</v>
       </c>
       <c r="H1370" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I1370" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Pac-12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>ACC</v>
       </c>
       <c r="J1370" s="2"/>
       <c r="K1370" s="2"/>
@@ -56817,11 +56808,11 @@
         <v>14</v>
       </c>
       <c r="H1371" s="2" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="I1371" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big West</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Patriot</v>
       </c>
       <c r="J1371" s="2"/>
       <c r="K1371" s="2"/>
@@ -56848,11 +56839,11 @@
         <v>7</v>
       </c>
       <c r="H1372" s="2" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="I1372" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>AAC</v>
       </c>
       <c r="J1372" s="2"/>
       <c r="K1372" s="2"/>
@@ -56879,10 +56870,10 @@
         <v>10</v>
       </c>
       <c r="H1373" s="2" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="I1373" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>AAC</v>
       </c>
       <c r="J1373" s="2"/>
@@ -56910,11 +56901,11 @@
         <v>2</v>
       </c>
       <c r="H1374" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I1374" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>ACC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>A-10</v>
       </c>
       <c r="J1374" s="2"/>
       <c r="K1374" s="2"/>
@@ -56941,11 +56932,11 @@
         <v>15</v>
       </c>
       <c r="H1375" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1375" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>OVC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Summit</v>
       </c>
       <c r="J1375" s="2"/>
       <c r="K1375" s="2"/>
@@ -56975,7 +56966,7 @@
         <v>70</v>
       </c>
       <c r="I1376" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>WCC</v>
       </c>
       <c r="J1376" s="2"/>
@@ -57003,11 +56994,11 @@
         <v>16</v>
       </c>
       <c r="H1377" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I1377" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MAAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>NEC</v>
       </c>
       <c r="J1377" s="2"/>
       <c r="K1377" s="2"/>
@@ -57034,11 +57025,11 @@
         <v>9</v>
       </c>
       <c r="H1378" s="2" t="s">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I1378" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>AAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big 12</v>
       </c>
       <c r="J1378" s="2"/>
       <c r="K1378" s="2"/>
@@ -57065,11 +57056,11 @@
         <v>8</v>
       </c>
       <c r="H1379" s="2" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="I1379" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Pac-12</v>
       </c>
       <c r="J1379" s="2"/>
       <c r="K1379" s="2"/>
@@ -57096,11 +57087,11 @@
         <v>5</v>
       </c>
       <c r="H1380" s="2" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="I1380" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Pac-12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1380" s="2"/>
       <c r="K1380" s="2"/>
@@ -57127,11 +57118,11 @@
         <v>12</v>
       </c>
       <c r="H1381" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I1381" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>CUSA</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>A-Sun</v>
       </c>
       <c r="J1381" s="2"/>
       <c r="K1381" s="2"/>
@@ -57158,10 +57149,10 @@
         <v>4</v>
       </c>
       <c r="H1382" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="I1382" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>SEC</v>
       </c>
       <c r="J1382" s="2"/>
@@ -57189,11 +57180,11 @@
         <v>13</v>
       </c>
       <c r="H1383" s="2" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="I1383" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>WAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MAC (East)</v>
       </c>
       <c r="J1383" s="2"/>
       <c r="K1383" s="2"/>
@@ -57220,11 +57211,11 @@
         <v>6</v>
       </c>
       <c r="H1384" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I1384" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1384" s="2"/>
       <c r="K1384" s="2"/>
@@ -57251,11 +57242,11 @@
         <v>11</v>
       </c>
       <c r="H1385" s="2" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="I1385" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Southern</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>AAC</v>
       </c>
       <c r="J1385" s="2"/>
       <c r="K1385" s="2"/>
@@ -57282,11 +57273,11 @@
         <v>3</v>
       </c>
       <c r="H1386" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I1386" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>ACC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1386" s="2"/>
       <c r="K1386" s="2"/>
@@ -57313,11 +57304,11 @@
         <v>14</v>
       </c>
       <c r="H1387" s="2" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="I1387" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big South</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Horizon</v>
       </c>
       <c r="J1387" s="2"/>
       <c r="K1387" s="2"/>
@@ -57344,11 +57335,11 @@
         <v>7</v>
       </c>
       <c r="H1388" s="2" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="I1388" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>WCC</v>
       </c>
       <c r="J1388" s="2"/>
       <c r="K1388" s="2"/>
@@ -57375,11 +57366,11 @@
         <v>10</v>
       </c>
       <c r="H1389" s="2" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="I1389" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>WCC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>ACC</v>
       </c>
       <c r="J1389" s="2"/>
       <c r="K1389" s="2"/>
@@ -57406,11 +57397,11 @@
         <v>2</v>
       </c>
       <c r="H1390" s="2" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="I1390" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big 12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1390" s="2"/>
       <c r="K1390" s="2"/>
@@ -57440,7 +57431,7 @@
         <v>236</v>
       </c>
       <c r="I1391" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Sun Belt</v>
       </c>
       <c r="J1391" s="2"/>
@@ -57468,11 +57459,11 @@
         <v>1</v>
       </c>
       <c r="H1392" s="2" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="I1392" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big 12</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MWC</v>
       </c>
       <c r="J1392" s="2"/>
       <c r="K1392" s="2"/>
@@ -57499,11 +57490,11 @@
         <v>16</v>
       </c>
       <c r="H1393" s="2" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="I1393" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>A-Sun</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>MEAC</v>
       </c>
       <c r="J1393" s="2"/>
       <c r="K1393" s="2"/>
@@ -57530,11 +57521,11 @@
         <v>8</v>
       </c>
       <c r="H1394" s="2" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="I1394" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>AAC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1394" s="2"/>
       <c r="K1394" s="2"/>
@@ -57561,11 +57552,11 @@
         <v>9</v>
       </c>
       <c r="H1395" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I1395" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>SEC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1395" s="2"/>
       <c r="K1395" s="2"/>
@@ -57592,11 +57583,11 @@
         <v>6</v>
       </c>
       <c r="H1396" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="I1396" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1396" s="2"/>
       <c r="K1396" s="2"/>
@@ -57623,11 +57614,11 @@
         <v>12</v>
       </c>
       <c r="H1397" s="2" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="I1397" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MAC (East)</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Ivy</v>
       </c>
       <c r="J1397" s="2"/>
       <c r="K1397" s="2"/>
@@ -57654,11 +57645,11 @@
         <v>4</v>
       </c>
       <c r="H1398" s="2" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="I1398" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big East</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Pac-12</v>
       </c>
       <c r="J1398" s="2"/>
       <c r="K1398" s="2"/>
@@ -57685,11 +57676,11 @@
         <v>13</v>
       </c>
       <c r="H1399" s="2" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="I1399" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>MVC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>CUSA</v>
       </c>
       <c r="J1399" s="2"/>
       <c r="K1399" s="2"/>
@@ -57716,11 +57707,11 @@
         <v>6</v>
       </c>
       <c r="H1400" s="2" t="s">
-        <v>6</v>
+        <v>265</v>
       </c>
       <c r="I1400" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big East</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big Ten</v>
       </c>
       <c r="J1400" s="2"/>
       <c r="K1400" s="2"/>
@@ -57747,11 +57738,11 @@
         <v>11</v>
       </c>
       <c r="H1401" s="2" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="I1401" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>A-Sun</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Southern</v>
       </c>
       <c r="J1401" s="2"/>
       <c r="K1401" s="2"/>
@@ -57778,11 +57769,11 @@
         <v>3</v>
       </c>
       <c r="H1402" s="2" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="I1402" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Ten</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big East</v>
       </c>
       <c r="J1402" s="2"/>
       <c r="K1402" s="2"/>
@@ -57809,11 +57800,11 @@
         <v>14</v>
       </c>
       <c r="H1403" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="I1403" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Horizon</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>CAA</v>
       </c>
       <c r="J1403" s="2"/>
       <c r="K1403" s="2"/>
@@ -57840,10 +57831,10 @@
         <v>7</v>
       </c>
       <c r="H1404" s="2" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="I1404" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
         <v>Big Ten</v>
       </c>
       <c r="J1404" s="2"/>
@@ -57871,11 +57862,11 @@
         <v>10</v>
       </c>
       <c r="H1405" s="2" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="I1405" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>WCC</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Pac-12</v>
       </c>
       <c r="J1405" s="2"/>
       <c r="K1405" s="2"/>
@@ -57902,11 +57893,11 @@
         <v>2</v>
       </c>
       <c r="H1406" s="4" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="I1406" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>A-10</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>ACC</v>
       </c>
       <c r="J1406" s="4"/>
       <c r="K1406" s="4"/>
@@ -57933,11 +57924,11 @@
         <v>15</v>
       </c>
       <c r="H1407" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I1407" s="2" t="str">
-        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$5766:$C$6118,2,)</f>
-        <v>Big Sky</v>
+        <f>VLOOKUP(Table1[[#This Row],[Team]],[1]Sheet1!$B$3480:$C$3832,2,FALSE)</f>
+        <v>Big South</v>
       </c>
       <c r="J1407" s="2"/>
       <c r="K1407" s="2"/>
@@ -57953,7 +57944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
